--- a/Stuffing Example.xlsx
+++ b/Stuffing Example.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fordhamit-my.sharepoint.com/personal/jcolon_fordham_edu/Documents/Partnership/Partnership-Tax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8173D201-CDD9-A84D-9137-B5C7FBBF71EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{8173D201-CDD9-A84D-9137-B5C7FBBF71EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32380861-602E-954F-A4B4-111CD384B4B4}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2240" windowWidth="26300" windowHeight="21840" xr2:uid="{EF9CE688-D02C-084C-B93D-ADFE5EE283D1}"/>
+    <workbookView xWindow="5880" yWindow="1440" windowWidth="35760" windowHeight="22980" xr2:uid="{EF9CE688-D02C-084C-B93D-ADFE5EE283D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>A</t>
   </si>
@@ -52,9 +53,6 @@
     <t>FMV</t>
   </si>
   <si>
-    <t>PSH Inc '21</t>
-  </si>
-  <si>
     <t>Amount Realized</t>
   </si>
   <si>
@@ -74,6 +72,21 @@
   </si>
   <si>
     <t>OI--Stuff</t>
+  </si>
+  <si>
+    <t>PSH Inc '23</t>
+  </si>
+  <si>
+    <t>Begin AB</t>
+  </si>
+  <si>
+    <t>Ending FMV</t>
+  </si>
+  <si>
+    <t>BB 100 + 60 '23 Inc</t>
+  </si>
+  <si>
+    <t>Ending Basis</t>
   </si>
 </sst>
 </file>
@@ -138,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -165,6 +178,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,195 +496,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA8345A-D654-3F45-9308-F36DD15B0073}">
-  <dimension ref="C3:K21"/>
+  <dimension ref="B3:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="F3" s="3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E3" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C4" s="2"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C5" s="5">
+        <v>100</v>
+      </c>
       <c r="D5" s="5">
-        <v>100</v>
-      </c>
-      <c r="E5" s="5">
         <v>300</v>
       </c>
-      <c r="F5" s="9">
+      <c r="E5" s="9">
         <v>60</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
       <c r="D6" s="2">
-        <v>100</v>
-      </c>
-      <c r="E6" s="2">
         <v>300</v>
       </c>
-      <c r="F6" s="9">
+      <c r="E6" s="9">
         <v>60</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C7" s="3">
+        <v>100</v>
+      </c>
       <c r="D7" s="3">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3">
         <v>300</v>
       </c>
-      <c r="F7" s="10">
+      <c r="E7" s="10">
         <v>60</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C8" s="2">
+        <f>SUM(C5:C7)</f>
+        <v>300</v>
+      </c>
       <c r="D8" s="2">
         <f>SUM(D5:D7)</f>
-        <v>300</v>
-      </c>
-      <c r="E8" s="2">
+        <v>900</v>
+      </c>
+      <c r="E8" s="9">
         <f>SUM(E5:E7)</f>
-        <v>900</v>
-      </c>
-      <c r="F8" s="9">
-        <f>SUM(F5:F7)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>300</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7">
+        <v>160</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="4">
+      <c r="E13" s="8">
+        <f>E11-E12</f>
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="D12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="8">
-        <f>F11-F12</f>
-        <v>140</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="E14" t="s">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E20" s="7">
+        <f>D18+D19</f>
+        <v>280</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E21" s="8">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E22" s="8">
+        <v>180</v>
+      </c>
+      <c r="F22" t="s">
         <v>8</v>
-      </c>
-      <c r="F14" s="8">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F19" s="7">
-        <f>E17+E18</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F20" s="8">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F21" s="8">
-        <v>180</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
